--- a/biology/Zoologie/Harpa_amouretta/Harpa_amouretta.xlsx
+++ b/biology/Zoologie/Harpa_amouretta/Harpa_amouretta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpa amouretta est une espèce de mollusques gastéropodes de la famille des Harpidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpa amouretta a été décrite en 1798 par le naturaliste allemand Peter Friedrich Röding (1767-1846)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpa amouretta a été décrite en 1798 par le naturaliste allemand Peter Friedrich Röding (1767-1846).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harpa amouretta se rencontre dans le bassin Indo-Pacifique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpa amouretta se rencontre dans le bassin Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coquille d’Harpa amouretta mesure au maximum 7 cm[3],[4] et est de couleur blanche à crème avec des stries brun clair[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille d’Harpa amouretta mesure au maximum 7 cm, et est de couleur blanche à crème avec des stries brun clair.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (29 décembre 2022)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (29 décembre 2022) :
 Harpa amouretta crassa (C.F.F. von Krauss, 1848)
 Harpa amouretta minor Lamarck, 1822</t>
         </is>
